--- a/SuRGE_Sharepoint/data/CIN/CH4_205_Rosser_Park/dataSheets/surgeData205.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_205_Rosser_Park/dataSheets/surgeData205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_205_Rosser_Park/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1097" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAC4174E-0B99-4DD7-9B1A-5171728F4CDD}"/>
+  <xr:revisionPtr revIDLastSave="1103" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8378A4E6-3CD1-4376-9EDA-56350F6714E9}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="1635" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="dissolved.gas.dictionay" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">data!$B$2:$BN$47</definedName>
+    <definedName name="_xlnm.Database">data!$B$2:$BN$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="224">
   <si>
     <t>lake.id</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>8.27.2020</t>
+  </si>
+  <si>
+    <t>SG200455</t>
   </si>
 </sst>
 </file>
@@ -1303,6 +1306,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1316,9 +1322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1382,10 +1385,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,7 +1430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1529,7 +1536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1671,7 +1678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1682,153 +1689,153 @@
   <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM8" sqref="AM8"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="18" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="31" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="33" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
-      <c r="AX1" s="33"/>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="33"/>
-      <c r="BA1" s="33"/>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="32" t="s">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="34"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="34"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34"/>
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="34" t="s">
+      <c r="BK1" s="33"/>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="BN1" s="34"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="34"/>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2034,15 +2041,123 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="D3">
+        <v>41.561027000000003</v>
+      </c>
+      <c r="E3">
+        <v>-87.304381000000006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="H3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0.49027777777777781</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S3" s="27">
+        <v>0.53865740740740742</v>
+      </c>
+      <c r="T3">
+        <v>28.3</v>
+      </c>
+      <c r="U3">
+        <v>45</v>
+      </c>
+      <c r="V3">
+        <v>45</v>
+      </c>
+      <c r="W3">
+        <v>7.5</v>
+      </c>
+      <c r="X3">
+        <v>0.1</v>
+      </c>
+      <c r="Y3">
+        <v>28.43</v>
+      </c>
+      <c r="Z3">
+        <v>7.09</v>
+      </c>
+      <c r="AA3">
+        <v>547</v>
+      </c>
+      <c r="AB3">
+        <v>8.91</v>
+      </c>
+      <c r="AC3">
+        <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>2.5</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ3">
+        <v>6.5</v>
+      </c>
+      <c r="AR3">
+        <v>12.96</v>
+      </c>
+      <c r="AS3">
+        <v>0.23</v>
+      </c>
+      <c r="AT3">
+        <v>629</v>
+      </c>
+      <c r="AU3">
+        <v>10.3</v>
+      </c>
+      <c r="AV3">
+        <v>52.7</v>
+      </c>
+      <c r="AW3">
+        <v>4.7</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>199</v>
       </c>
       <c r="BJ3" t="s">
         <v>202</v>
@@ -2066,89 +2181,212 @@
         <v>0.57986111111111105</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D4">
+        <v>41.560175000000001</v>
+      </c>
+      <c r="E4">
+        <v>-87.301683999999995</v>
+      </c>
+      <c r="F4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="J4">
+        <v>134</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" t="s">
+        <v>189</v>
+      </c>
+      <c r="P4" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S4" s="27">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="T4">
+        <v>29.6</v>
+      </c>
+      <c r="U4">
+        <v>45</v>
+      </c>
+      <c r="V4">
+        <v>45</v>
+      </c>
+      <c r="W4">
+        <v>2.1</v>
+      </c>
+      <c r="X4">
+        <v>0.1</v>
+      </c>
+      <c r="Y4">
+        <v>28.65</v>
+      </c>
+      <c r="Z4">
+        <v>8.25</v>
+      </c>
+      <c r="AA4">
+        <v>544</v>
+      </c>
+      <c r="AB4">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="AC4">
+        <v>7.1</v>
+      </c>
+      <c r="AD4">
+        <v>2.4</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ4">
+        <v>1.6</v>
+      </c>
+      <c r="AR4">
+        <v>27.52</v>
+      </c>
+      <c r="AS4">
+        <v>5.87</v>
+      </c>
+      <c r="AT4">
+        <v>551</v>
+      </c>
+      <c r="AU4">
+        <v>8.65</v>
+      </c>
+      <c r="AV4">
+        <v>6.1</v>
+      </c>
+      <c r="AW4">
+        <v>3.1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>175</v>
       </c>
       <c r="D5">
-        <v>41.561027000000003</v>
+        <v>41.559398000000002</v>
       </c>
       <c r="E5">
-        <v>-87.304381000000006</v>
+        <v>-87.300738999999993</v>
       </c>
       <c r="F5" t="s">
         <v>177</v>
       </c>
       <c r="G5" s="26">
-        <v>0.69444444444444453</v>
+        <v>0.75069444444444444</v>
       </c>
       <c r="H5" t="s">
         <v>178</v>
       </c>
       <c r="I5" s="26">
-        <v>0.49027777777777781</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>179</v>
+        <v>364</v>
+      </c>
+      <c r="L5" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" t="s">
+        <v>192</v>
       </c>
       <c r="R5" t="s">
         <v>178</v>
       </c>
       <c r="S5" s="27">
-        <v>0.53865740740740742</v>
+        <v>0.61203703703703705</v>
       </c>
       <c r="T5">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="U5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="V5">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W5">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="X5">
         <v>0.1</v>
       </c>
       <c r="Y5">
-        <v>28.43</v>
+        <v>28.25</v>
       </c>
       <c r="Z5">
-        <v>7.09</v>
+        <v>8.19</v>
       </c>
       <c r="AA5">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="AB5">
-        <v>8.91</v>
+        <v>8.86</v>
       </c>
       <c r="AC5">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="AD5">
-        <v>2.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -2157,31 +2395,31 @@
         <v>1</v>
       </c>
       <c r="AL5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AQ5">
-        <v>6.5</v>
+        <v>0.7</v>
       </c>
       <c r="AR5">
-        <v>12.96</v>
+        <v>28.22</v>
       </c>
       <c r="AS5">
-        <v>0.23</v>
+        <v>8.1</v>
       </c>
       <c r="AT5">
-        <v>629</v>
+        <v>556</v>
       </c>
       <c r="AU5">
-        <v>10.3</v>
+        <v>8.85</v>
       </c>
       <c r="AV5">
-        <v>52.7</v>
+        <v>7.9</v>
       </c>
       <c r="AW5">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -2190,60 +2428,57 @@
         <v>1</v>
       </c>
       <c r="BE5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BI5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
         <v>175</v>
       </c>
       <c r="D6">
-        <v>41.560175000000001</v>
+        <v>41.560656999999999</v>
       </c>
       <c r="E6">
-        <v>-87.301683999999995</v>
+        <v>-87.303177000000005</v>
       </c>
       <c r="F6" t="s">
         <v>177</v>
       </c>
       <c r="G6" s="26">
-        <v>0.79791666666666661</v>
+        <v>0.68055555555555547</v>
       </c>
       <c r="H6" t="s">
         <v>178</v>
       </c>
       <c r="I6" s="26">
-        <v>0.55208333333333337</v>
+        <v>0.4694444444444445</v>
       </c>
       <c r="J6">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R6" t="s">
         <v>178</v>
       </c>
       <c r="S6" s="27">
-        <v>0.60416666666666663</v>
+        <v>0.52048611111111109</v>
       </c>
       <c r="T6">
-        <v>29.6</v>
+        <v>28.7</v>
       </c>
       <c r="U6">
         <v>45</v>
@@ -2252,28 +2487,28 @@
         <v>45</v>
       </c>
       <c r="W6">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="X6">
         <v>0.1</v>
       </c>
       <c r="Y6">
-        <v>28.65</v>
+        <v>28.68</v>
       </c>
       <c r="Z6">
-        <v>8.25</v>
+        <v>8.16</v>
       </c>
       <c r="AA6">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AB6">
-        <v>8.8800000000000008</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AC6">
-        <v>7.1</v>
+        <v>9.9</v>
       </c>
       <c r="AD6">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="AF6">
         <v>1</v>
@@ -2288,25 +2523,25 @@
         <v>199</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="AR6">
-        <v>27.52</v>
+        <v>23.24</v>
       </c>
       <c r="AS6">
-        <v>5.87</v>
+        <v>1.47</v>
       </c>
       <c r="AT6">
         <v>551</v>
       </c>
       <c r="AU6">
-        <v>8.65</v>
+        <v>7.75</v>
       </c>
       <c r="AV6">
-        <v>6.1</v>
+        <v>12</v>
       </c>
       <c r="AW6">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -2321,120 +2556,114 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
         <v>175</v>
       </c>
       <c r="D7">
-        <v>41.559398000000002</v>
+        <v>41.561228</v>
       </c>
       <c r="E7">
-        <v>-87.300738999999993</v>
+        <v>-87.304674000000006</v>
       </c>
       <c r="F7" t="s">
         <v>177</v>
       </c>
       <c r="G7" s="26">
-        <v>0.75069444444444444</v>
+        <v>0.6875</v>
       </c>
       <c r="H7" t="s">
         <v>178</v>
       </c>
       <c r="I7" s="26">
-        <v>0.56111111111111112</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="J7">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="L7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P7" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="M7" t="s">
+        <v>197</v>
       </c>
       <c r="R7" t="s">
         <v>178</v>
       </c>
       <c r="S7" s="27">
-        <v>0.61203703703703705</v>
+        <v>0.50624999999999998</v>
       </c>
       <c r="T7">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="U7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W7">
-        <v>1.2</v>
+        <v>9.1</v>
       </c>
       <c r="X7">
         <v>0.1</v>
       </c>
       <c r="Y7">
-        <v>28.25</v>
+        <v>28.51</v>
       </c>
       <c r="Z7">
-        <v>8.19</v>
+        <v>7.9</v>
       </c>
       <c r="AA7">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="AB7">
-        <v>8.86</v>
+        <v>8.81</v>
       </c>
       <c r="AC7">
+        <v>6.9</v>
+      </c>
+      <c r="AD7">
+        <v>0.9</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ7">
         <v>8.1</v>
       </c>
-      <c r="AD7">
-        <v>1.5</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ7">
-        <v>0.7</v>
-      </c>
       <c r="AR7">
-        <v>28.22</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AS7">
-        <v>8.1</v>
+        <v>0.31</v>
       </c>
       <c r="AT7">
-        <v>556</v>
+        <v>648</v>
       </c>
       <c r="AU7">
-        <v>8.85</v>
+        <v>10.53</v>
       </c>
       <c r="AV7">
-        <v>7.9</v>
+        <v>22.5</v>
       </c>
       <c r="AW7">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -2443,326 +2672,317 @@
         <v>1</v>
       </c>
       <c r="BE7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BI7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8">
-        <v>41.560656999999999</v>
-      </c>
-      <c r="E8">
-        <v>-87.303177000000005</v>
-      </c>
-      <c r="F8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0.68055555555555547</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="26">
-        <v>0.4694444444444445</v>
-      </c>
-      <c r="J8">
-        <v>57</v>
-      </c>
-      <c r="L8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" t="s">
-        <v>186</v>
-      </c>
-      <c r="R8" t="s">
-        <v>178</v>
-      </c>
-      <c r="S8" s="27">
-        <v>0.52048611111111109</v>
-      </c>
-      <c r="T8">
-        <v>28.7</v>
-      </c>
-      <c r="U8">
-        <v>45</v>
-      </c>
-      <c r="V8">
-        <v>45</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8">
-        <v>0.1</v>
-      </c>
-      <c r="Y8">
-        <v>28.68</v>
-      </c>
-      <c r="Z8">
-        <v>8.16</v>
-      </c>
-      <c r="AA8">
-        <v>538</v>
-      </c>
-      <c r="AB8">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AC8">
-        <v>9.9</v>
-      </c>
-      <c r="AD8">
-        <v>0.4</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ8">
-        <v>4</v>
-      </c>
-      <c r="AR8">
-        <v>23.24</v>
-      </c>
-      <c r="AS8">
-        <v>1.47</v>
-      </c>
-      <c r="AT8">
-        <v>551</v>
-      </c>
-      <c r="AU8">
-        <v>7.75</v>
-      </c>
-      <c r="AV8">
-        <v>12</v>
-      </c>
-      <c r="AW8">
-        <v>5.6</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
-        <v>1</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9">
-        <v>41.561228</v>
-      </c>
-      <c r="E9">
-        <v>-87.304674000000006</v>
-      </c>
-      <c r="F9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0.6875</v>
-      </c>
-      <c r="H9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0.45347222222222222</v>
-      </c>
-      <c r="J9">
-        <v>12</v>
-      </c>
-      <c r="L9" t="s">
-        <v>184</v>
-      </c>
-      <c r="M9" t="s">
-        <v>197</v>
-      </c>
-      <c r="R9" t="s">
-        <v>178</v>
-      </c>
-      <c r="S9" s="27">
-        <v>0.50624999999999998</v>
-      </c>
-      <c r="T9">
-        <v>28</v>
-      </c>
-      <c r="U9">
-        <v>45</v>
-      </c>
-      <c r="V9">
-        <v>45</v>
-      </c>
-      <c r="W9">
-        <v>9.1</v>
-      </c>
-      <c r="X9">
-        <v>0.1</v>
-      </c>
-      <c r="Y9">
-        <v>28.51</v>
-      </c>
-      <c r="Z9">
-        <v>7.9</v>
-      </c>
-      <c r="AA9">
-        <v>543</v>
-      </c>
-      <c r="AB9">
-        <v>8.81</v>
-      </c>
-      <c r="AC9">
-        <v>6.9</v>
-      </c>
-      <c r="AD9">
-        <v>0.9</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ9">
-        <v>8.1</v>
-      </c>
-      <c r="AR9">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AS9">
-        <v>0.31</v>
-      </c>
-      <c r="AT9">
-        <v>648</v>
-      </c>
-      <c r="AU9">
-        <v>10.53</v>
-      </c>
-      <c r="AV9">
-        <v>22.5</v>
-      </c>
-      <c r="AW9">
-        <v>6.6</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
-        <v>1</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>41.560982000000003</v>
+      </c>
+      <c r="E10">
+        <v>-87.302010999999993</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="J10">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>178</v>
+      </c>
+      <c r="S10" s="27">
+        <v>0.59508101851851858</v>
+      </c>
+      <c r="T10">
+        <v>28.9</v>
+      </c>
+      <c r="U10">
+        <v>45</v>
+      </c>
+      <c r="V10">
+        <v>45</v>
+      </c>
+      <c r="W10">
+        <v>2.8</v>
+      </c>
+      <c r="X10">
+        <v>0.1</v>
+      </c>
+      <c r="Y10">
+        <v>29.16</v>
+      </c>
+      <c r="Z10">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AA10">
+        <v>543</v>
+      </c>
+      <c r="AB10">
+        <v>8.84</v>
+      </c>
+      <c r="AC10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AD10">
+        <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR10">
+        <v>26.95</v>
+      </c>
+      <c r="AS10">
+        <v>4.88</v>
+      </c>
+      <c r="AT10">
+        <v>544</v>
+      </c>
+      <c r="AU10">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="AV10">
+        <v>11.3</v>
+      </c>
+      <c r="AW10">
+        <v>18.8</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D11">
+        <v>41.561464999999998</v>
+      </c>
+      <c r="E11">
+        <v>-87.304041999999995</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H11" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.50138888888888888</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S11" s="27">
+        <v>0.55092592592592593</v>
+      </c>
+      <c r="T11">
+        <v>28.6</v>
+      </c>
+      <c r="U11">
+        <v>45</v>
+      </c>
+      <c r="V11">
+        <v>45</v>
+      </c>
+      <c r="W11">
+        <v>7.6</v>
+      </c>
+      <c r="X11">
+        <v>0.1</v>
+      </c>
+      <c r="Y11">
+        <v>28.44</v>
+      </c>
+      <c r="Z11">
+        <v>7.91</v>
+      </c>
+      <c r="AA11">
+        <v>547</v>
+      </c>
+      <c r="AB11">
+        <v>8.86</v>
+      </c>
+      <c r="AC11">
+        <v>7.1</v>
+      </c>
+      <c r="AD11">
+        <v>1.7</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ11">
+        <v>6.6</v>
+      </c>
+      <c r="AR11">
+        <v>13.05</v>
+      </c>
+      <c r="AS11">
+        <v>0.38</v>
+      </c>
+      <c r="AT11">
+        <v>618</v>
+      </c>
+      <c r="AU11">
+        <v>10.06</v>
+      </c>
+      <c r="AV11">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AW11">
+        <v>4.5</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>175</v>
       </c>
       <c r="D12">
-        <v>41.560982000000003</v>
+        <v>41.561027000000003</v>
       </c>
       <c r="E12">
-        <v>-87.302010999999993</v>
+        <v>-87.303864000000004</v>
       </c>
       <c r="F12" t="s">
         <v>177</v>
       </c>
       <c r="G12" s="26">
-        <v>0.71944444444444444</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="H12" t="s">
         <v>178</v>
       </c>
       <c r="I12" s="26">
-        <v>0.54513888888888895</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="J12">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>181</v>
-      </c>
-      <c r="N12" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" t="s">
-        <v>183</v>
+        <v>7.5</v>
       </c>
       <c r="R12" t="s">
         <v>178</v>
       </c>
       <c r="S12" s="27">
-        <v>0.59508101851851858</v>
+        <v>0.56458333333333333</v>
       </c>
       <c r="T12">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="U12">
         <v>45</v>
@@ -2771,28 +2991,28 @@
         <v>45</v>
       </c>
       <c r="W12">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="X12">
         <v>0.1</v>
       </c>
       <c r="Y12">
-        <v>29.16</v>
+        <v>28.51</v>
       </c>
       <c r="Z12">
-        <v>8.0500000000000007</v>
+        <v>7.91</v>
       </c>
       <c r="AA12">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AB12">
-        <v>8.84</v>
+        <v>8.85</v>
       </c>
       <c r="AC12">
-        <v>9.1999999999999993</v>
+        <v>6.6</v>
       </c>
       <c r="AD12">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2807,25 +3027,25 @@
         <v>199</v>
       </c>
       <c r="AQ12">
-        <v>2.2999999999999998</v>
+        <v>4.3</v>
       </c>
       <c r="AR12">
-        <v>26.95</v>
+        <v>22.73</v>
       </c>
       <c r="AS12">
-        <v>4.88</v>
+        <v>2.11</v>
       </c>
       <c r="AT12">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AU12">
-        <v>8.3800000000000008</v>
+        <v>7.99</v>
       </c>
       <c r="AV12">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
       <c r="AW12">
-        <v>18.8</v>
+        <v>6.2</v>
       </c>
       <c r="AY12">
         <v>1</v>
@@ -2840,78 +3060,87 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
         <v>175</v>
       </c>
       <c r="D13">
-        <v>41.561464999999998</v>
+        <v>41.558933000000003</v>
       </c>
       <c r="E13">
-        <v>-87.304041999999995</v>
+        <v>-87.300802000000004</v>
       </c>
       <c r="F13" t="s">
         <v>177</v>
       </c>
       <c r="G13" s="26">
-        <v>0.70138888888888884</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="H13" t="s">
         <v>178</v>
       </c>
       <c r="I13" s="26">
-        <v>0.50138888888888888</v>
+        <v>0.57013888888888886</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="L13" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" t="s">
+        <v>197</v>
       </c>
       <c r="R13" t="s">
         <v>178</v>
       </c>
       <c r="S13" s="27">
-        <v>0.55092592592592593</v>
+        <v>0.61875000000000002</v>
       </c>
       <c r="T13">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="U13">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="V13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="W13">
-        <v>7.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X13">
         <v>0.1</v>
       </c>
       <c r="Y13">
-        <v>28.44</v>
+        <v>28.06</v>
       </c>
       <c r="Z13">
-        <v>7.91</v>
+        <v>7.85</v>
       </c>
       <c r="AA13">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="AB13">
-        <v>8.86</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="AC13">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>1.7</v>
+        <v>1.5</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2920,31 +3149,31 @@
         <v>1</v>
       </c>
       <c r="AL13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AQ13">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
-        <v>13.05</v>
+        <v>27.88</v>
       </c>
       <c r="AS13">
-        <v>0.38</v>
+        <v>5.68</v>
       </c>
       <c r="AT13">
-        <v>618</v>
+        <v>565</v>
       </c>
       <c r="AU13">
-        <v>10.06</v>
+        <v>8.6</v>
       </c>
       <c r="AV13">
-        <v>66.099999999999994</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AW13">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="AY13">
         <v>1</v>
@@ -2953,51 +3182,51 @@
         <v>1</v>
       </c>
       <c r="BE13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BI13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
         <v>175</v>
       </c>
       <c r="D14">
-        <v>41.561027000000003</v>
+        <v>41.561205000000001</v>
       </c>
       <c r="E14">
-        <v>-87.303864000000004</v>
+        <v>-87.303177000000005</v>
       </c>
       <c r="F14" t="s">
         <v>177</v>
       </c>
       <c r="G14" s="26">
-        <v>0.70833333333333337</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="H14" t="s">
         <v>178</v>
       </c>
       <c r="I14" s="26">
-        <v>0.51666666666666672</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="J14">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="R14" t="s">
         <v>178</v>
       </c>
       <c r="S14" s="27">
-        <v>0.56458333333333333</v>
+        <v>0.56956018518518514</v>
       </c>
       <c r="T14">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="U14">
         <v>45</v>
@@ -3006,28 +3235,28 @@
         <v>45</v>
       </c>
       <c r="W14">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="X14">
         <v>0.1</v>
       </c>
       <c r="Y14">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="Z14">
-        <v>7.91</v>
+        <v>7.94</v>
       </c>
       <c r="AA14">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AB14">
-        <v>8.85</v>
+        <v>8.81</v>
       </c>
       <c r="AC14">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AD14">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF14">
         <v>1</v>
@@ -3042,25 +3271,25 @@
         <v>199</v>
       </c>
       <c r="AQ14">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AR14">
-        <v>22.73</v>
+        <v>22.01</v>
       </c>
       <c r="AS14">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AT14">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AU14">
-        <v>7.99</v>
+        <v>7.95</v>
       </c>
       <c r="AV14">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="AW14">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AY14">
         <v>1</v>
@@ -3075,42 +3304,39 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
       </c>
       <c r="D15">
-        <v>41.558933000000003</v>
+        <v>41.560608000000002</v>
       </c>
       <c r="E15">
-        <v>-87.300802000000004</v>
+        <v>-87.302766000000005</v>
       </c>
       <c r="F15" t="s">
         <v>177</v>
       </c>
       <c r="G15" s="26">
-        <v>0.76111111111111107</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="H15" t="s">
         <v>178</v>
       </c>
       <c r="I15" s="26">
-        <v>0.57013888888888886</v>
+        <v>0.53680555555555554</v>
       </c>
       <c r="J15">
-        <v>11</v>
-      </c>
-      <c r="K15" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s">
         <v>197</v>
@@ -3119,40 +3345,40 @@
         <v>178</v>
       </c>
       <c r="S15" s="27">
-        <v>0.61875000000000002</v>
+        <v>0.58796296296296291</v>
       </c>
       <c r="T15">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="U15">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="V15">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W15">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="X15">
         <v>0.1</v>
       </c>
       <c r="Y15">
-        <v>28.06</v>
+        <v>28.97</v>
       </c>
       <c r="Z15">
-        <v>7.85</v>
+        <v>8</v>
       </c>
       <c r="AA15">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="AB15">
-        <v>8.7899999999999991</v>
+        <v>8.83</v>
       </c>
       <c r="AC15">
-        <v>8</v>
+        <v>10.3</v>
       </c>
       <c r="AD15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AE15">
         <v>1</v>
@@ -3170,25 +3396,25 @@
         <v>200</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AR15">
-        <v>27.88</v>
+        <v>28.64</v>
       </c>
       <c r="AS15">
-        <v>5.68</v>
+        <v>9.42</v>
       </c>
       <c r="AT15">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="AU15">
-        <v>8.6</v>
+        <v>8.93</v>
       </c>
       <c r="AV15">
-        <v>9.1999999999999993</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="AW15">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="AY15">
         <v>1</v>
@@ -3203,45 +3429,48 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>175</v>
       </c>
       <c r="D16">
-        <v>41.561205000000001</v>
+        <v>41.560650000000003</v>
       </c>
       <c r="E16">
-        <v>-87.303177000000005</v>
+        <v>-87.304745999999994</v>
       </c>
       <c r="F16" t="s">
         <v>177</v>
       </c>
       <c r="G16" s="26">
-        <v>0.71527777777777779</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="H16" t="s">
         <v>178</v>
       </c>
       <c r="I16" s="26">
-        <v>0.52083333333333337</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>195</v>
       </c>
       <c r="R16" t="s">
         <v>178</v>
       </c>
       <c r="S16" s="27">
-        <v>0.56956018518518514</v>
+        <v>0.55960648148148151</v>
       </c>
       <c r="T16">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="U16">
         <v>45</v>
@@ -3250,28 +3479,28 @@
         <v>45</v>
       </c>
       <c r="W16">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="X16">
         <v>0.1</v>
       </c>
       <c r="Y16">
-        <v>28.5</v>
+        <v>28.35</v>
       </c>
       <c r="Z16">
-        <v>7.94</v>
+        <v>8.15</v>
       </c>
       <c r="AA16">
         <v>545</v>
       </c>
       <c r="AB16">
-        <v>8.81</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="AC16">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="AD16">
-        <v>0.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -3286,25 +3515,25 @@
         <v>199</v>
       </c>
       <c r="AQ16">
-        <v>3.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AR16">
-        <v>22.01</v>
+        <v>21.93</v>
       </c>
       <c r="AS16">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AU16">
         <v>7.95</v>
       </c>
       <c r="AV16">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
       <c r="AW16">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="AY16">
         <v>1</v>
@@ -3319,173 +3548,62 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
-      </c>
-      <c r="D17">
-        <v>41.560608000000002</v>
-      </c>
-      <c r="E17">
-        <v>-87.302766000000005</v>
-      </c>
-      <c r="F17" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="H17" t="s">
-        <v>178</v>
-      </c>
-      <c r="I17" s="26">
-        <v>0.53680555555555554</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="L17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M17" t="s">
-        <v>197</v>
-      </c>
-      <c r="R17" t="s">
-        <v>178</v>
-      </c>
-      <c r="S17" s="27">
-        <v>0.58796296296296291</v>
-      </c>
-      <c r="T17">
-        <v>28.9</v>
-      </c>
-      <c r="U17">
-        <v>45</v>
-      </c>
-      <c r="V17">
-        <v>45</v>
-      </c>
-      <c r="W17">
-        <v>1.4</v>
-      </c>
-      <c r="X17">
-        <v>0.1</v>
-      </c>
-      <c r="Y17">
-        <v>28.97</v>
-      </c>
-      <c r="Z17">
-        <v>8</v>
-      </c>
-      <c r="AA17">
-        <v>544</v>
-      </c>
-      <c r="AB17">
-        <v>8.83</v>
-      </c>
-      <c r="AC17">
-        <v>10.3</v>
-      </c>
-      <c r="AD17">
-        <v>1.8</v>
-      </c>
-      <c r="AE17">
-        <v>1</v>
-      </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ17">
-        <v>0.9</v>
-      </c>
-      <c r="AR17">
-        <v>28.64</v>
-      </c>
-      <c r="AS17">
-        <v>9.42</v>
-      </c>
-      <c r="AT17">
-        <v>541</v>
-      </c>
-      <c r="AU17">
-        <v>8.93</v>
-      </c>
-      <c r="AV17">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AW17">
-        <v>1.7</v>
-      </c>
-      <c r="AY17">
-        <v>1</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>201</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
         <v>175</v>
       </c>
       <c r="D18">
-        <v>41.560650000000003</v>
+        <v>41.562241999999998</v>
       </c>
       <c r="E18">
-        <v>-87.304745999999994</v>
+        <v>-87.303935999999993</v>
       </c>
       <c r="F18" t="s">
         <v>177</v>
       </c>
       <c r="G18" s="26">
-        <v>0.78472222222222221</v>
+        <v>0.77569444444444446</v>
       </c>
       <c r="H18" t="s">
         <v>178</v>
       </c>
       <c r="I18" s="26">
-        <v>0.50972222222222219</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="J18">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L18" t="s">
-        <v>195</v>
+        <v>223</v>
+      </c>
+      <c r="M18" t="s">
+        <v>197</v>
       </c>
       <c r="R18" t="s">
         <v>178</v>
       </c>
       <c r="S18" s="27">
-        <v>0.55960648148148151</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="T18">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="U18">
         <v>45</v>
@@ -3494,28 +3612,28 @@
         <v>45</v>
       </c>
       <c r="W18">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="X18">
         <v>0.1</v>
       </c>
       <c r="Y18">
-        <v>28.35</v>
+        <v>28.42</v>
       </c>
       <c r="Z18">
-        <v>8.15</v>
+        <v>8.57</v>
       </c>
       <c r="AA18">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AB18">
-        <v>8.8699999999999992</v>
+        <v>8.91</v>
       </c>
       <c r="AC18">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="AD18">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -3530,25 +3648,25 @@
         <v>199</v>
       </c>
       <c r="AQ18">
-        <v>4.5999999999999996</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>21.93</v>
+        <v>28.22</v>
       </c>
       <c r="AS18">
-        <v>1.75</v>
+        <v>8.02</v>
       </c>
       <c r="AT18">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="AU18">
-        <v>7.95</v>
+        <v>8.85</v>
       </c>
       <c r="AV18">
-        <v>11.6</v>
+        <v>9.6</v>
       </c>
       <c r="AW18">
-        <v>8.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY18">
         <v>1</v>
@@ -3563,56 +3681,167 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D19">
+        <v>41.561008000000001</v>
+      </c>
+      <c r="E19">
+        <v>-87.305907000000005</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.4770833333333333</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s">
+        <v>197</v>
+      </c>
+      <c r="R19" t="s">
+        <v>178</v>
+      </c>
+      <c r="S19" s="27">
+        <v>0.52650462962962963</v>
+      </c>
+      <c r="T19">
+        <v>28.3</v>
+      </c>
+      <c r="U19">
+        <v>45</v>
+      </c>
+      <c r="V19">
+        <v>45</v>
+      </c>
+      <c r="W19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="X19">
+        <v>0.1</v>
+      </c>
+      <c r="Y19">
+        <v>28.01</v>
+      </c>
+      <c r="Z19">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AA19">
+        <v>544</v>
+      </c>
+      <c r="AB19">
+        <v>8.86</v>
+      </c>
+      <c r="AC19">
+        <v>8.1</v>
+      </c>
+      <c r="AD19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ19">
+        <v>3.4</v>
+      </c>
+      <c r="AR19">
+        <v>25.18</v>
+      </c>
+      <c r="AS19">
+        <v>5.16</v>
+      </c>
+      <c r="AT19">
+        <v>550</v>
+      </c>
+      <c r="AU19">
+        <v>8.4</v>
+      </c>
+      <c r="AV19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AW19">
+        <v>3.3</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
       </c>
       <c r="D20">
-        <v>41.562241999999998</v>
+        <v>41.561678000000001</v>
       </c>
       <c r="E20">
-        <v>-87.303935999999993</v>
+        <v>-87.304652000000004</v>
       </c>
       <c r="F20" t="s">
         <v>177</v>
       </c>
       <c r="G20" s="26">
-        <v>0.77569444444444446</v>
+        <v>0.77986111111111101</v>
       </c>
       <c r="H20" t="s">
         <v>178</v>
       </c>
       <c r="I20" s="26">
-        <v>0.49513888888888885</v>
+        <v>0.48472222222222222</v>
       </c>
       <c r="J20">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
         <v>178</v>
       </c>
       <c r="S20" s="27">
-        <v>0.5444444444444444</v>
+        <v>0.53315972222222219</v>
       </c>
       <c r="T20">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="U20">
         <v>45</v>
@@ -3621,28 +3850,28 @@
         <v>45</v>
       </c>
       <c r="W20">
-        <v>2.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20">
         <v>0.1</v>
       </c>
       <c r="Y20">
-        <v>28.42</v>
+        <v>28.24</v>
       </c>
       <c r="Z20">
-        <v>8.57</v>
+        <v>7.89</v>
       </c>
       <c r="AA20">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="AB20">
-        <v>8.91</v>
+        <v>8.81</v>
       </c>
       <c r="AC20">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -3657,25 +3886,25 @@
         <v>199</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="AR20">
-        <v>28.22</v>
+        <v>12.88</v>
       </c>
       <c r="AS20">
-        <v>8.02</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="AU20">
-        <v>8.85</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="AV20">
-        <v>9.6</v>
+        <v>53.3</v>
       </c>
       <c r="AW20">
-        <v>1.1000000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="AY20">
         <v>1</v>
@@ -3690,242 +3919,26 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21">
-        <v>41.561008000000001</v>
-      </c>
-      <c r="E21">
-        <v>-87.305907000000005</v>
-      </c>
-      <c r="F21" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.7909722222222223</v>
-      </c>
-      <c r="H21" t="s">
-        <v>178</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0.4770833333333333</v>
-      </c>
-      <c r="J21">
-        <v>14</v>
-      </c>
-      <c r="L21" t="s">
-        <v>196</v>
-      </c>
-      <c r="M21" t="s">
-        <v>197</v>
-      </c>
-      <c r="R21" t="s">
-        <v>178</v>
-      </c>
-      <c r="S21" s="27">
-        <v>0.52650462962962963</v>
-      </c>
-      <c r="T21">
-        <v>28.3</v>
-      </c>
-      <c r="U21">
-        <v>45</v>
-      </c>
-      <c r="V21">
-        <v>45</v>
-      </c>
-      <c r="W21">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X21">
-        <v>0.1</v>
-      </c>
-      <c r="Y21">
-        <v>28.01</v>
-      </c>
-      <c r="Z21">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="AA21">
-        <v>544</v>
-      </c>
-      <c r="AB21">
-        <v>8.86</v>
-      </c>
-      <c r="AC21">
-        <v>8.1</v>
-      </c>
-      <c r="AD21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ21">
-        <v>3.4</v>
-      </c>
-      <c r="AR21">
-        <v>25.18</v>
-      </c>
-      <c r="AS21">
-        <v>5.16</v>
-      </c>
-      <c r="AT21">
-        <v>550</v>
-      </c>
-      <c r="AU21">
-        <v>8.4</v>
-      </c>
-      <c r="AV21">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AW21">
-        <v>3.3</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="BC21">
-        <v>1</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22">
-        <v>41.561678000000001</v>
-      </c>
-      <c r="E22">
-        <v>-87.304652000000004</v>
-      </c>
-      <c r="F22" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0.77986111111111101</v>
-      </c>
-      <c r="H22" t="s">
-        <v>178</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0.48472222222222222</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="R22" t="s">
-        <v>178</v>
-      </c>
-      <c r="S22" s="27">
-        <v>0.53315972222222219</v>
-      </c>
-      <c r="T22">
-        <v>28.4</v>
-      </c>
-      <c r="U22">
-        <v>45</v>
-      </c>
-      <c r="V22">
-        <v>45</v>
-      </c>
-      <c r="W22">
-        <v>7.6</v>
-      </c>
-      <c r="X22">
-        <v>0.1</v>
-      </c>
-      <c r="Y22">
-        <v>28.24</v>
-      </c>
-      <c r="Z22">
-        <v>7.89</v>
-      </c>
-      <c r="AA22">
-        <v>544</v>
-      </c>
-      <c r="AB22">
-        <v>8.81</v>
-      </c>
-      <c r="AC22">
-        <v>7.5</v>
-      </c>
-      <c r="AD22">
-        <v>0.9</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>198</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ22">
-        <v>6.6</v>
-      </c>
-      <c r="AR22">
-        <v>12.88</v>
-      </c>
-      <c r="AS22">
-        <v>1</v>
-      </c>
-      <c r="AT22">
-        <v>628</v>
-      </c>
-      <c r="AU22">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="AV22">
-        <v>53.3</v>
-      </c>
-      <c r="AW22">
-        <v>4.3</v>
-      </c>
-      <c r="AY22">
-        <v>1</v>
-      </c>
-      <c r="BC22">
-        <v>1</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3951,14 +3964,14 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3993,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3991,7 +4004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4037,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4035,7 +4048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +4059,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4057,7 +4070,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4068,7 +4081,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4079,7 +4092,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -4090,7 +4103,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4101,7 +4114,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -4120,7 +4133,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4128,7 +4141,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -4139,7 +4152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4147,7 +4160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -4158,7 +4171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4180,7 +4193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -4191,7 +4204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -4202,7 +4215,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4213,7 +4226,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4224,7 +4237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4235,7 +4248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4246,7 +4259,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4268,7 +4281,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4298,7 +4311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -4306,7 +4319,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -4314,7 +4327,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -4338,7 +4351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -4346,7 +4359,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>141</v>
       </c>
@@ -4354,7 +4367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>143</v>
       </c>
@@ -4370,7 +4383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
@@ -4386,7 +4399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -4397,7 +4410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -4408,7 +4421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -4419,7 +4432,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -4441,7 +4454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -4452,7 +4465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -4463,7 +4476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -4471,7 +4484,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -4479,7 +4492,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -4487,7 +4500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -4495,7 +4508,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>154</v>
       </c>
@@ -4503,7 +4516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -4511,7 +4524,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>145</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -4527,7 +4540,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>147</v>
       </c>
@@ -4535,7 +4548,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -4551,7 +4564,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>149</v>
       </c>
@@ -4559,7 +4572,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4570,7 +4583,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>50</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -4592,7 +4605,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -4603,7 +4616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -4627,18 +4640,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>59</v>
       </c>
@@ -4654,7 +4667,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4701,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>174</v>
       </c>
@@ -4717,7 +4730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>174</v>
       </c>
@@ -4746,7 +4759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>174</v>
       </c>
@@ -4775,7 +4788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>174</v>
       </c>
@@ -4804,7 +4817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>174</v>
       </c>
@@ -4833,7 +4846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>174</v>
       </c>
@@ -4880,14 +4893,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4909,7 +4922,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4920,7 +4933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4931,7 +4944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4942,7 +4955,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4953,7 +4966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4961,7 +4974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>125</v>
       </c>
@@ -4972,7 +4985,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>126</v>
       </c>
@@ -4983,7 +4996,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>127</v>
       </c>
@@ -4994,7 +5007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>160</v>
       </c>
@@ -5548,12 +5561,32 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86440B08-A2F2-4872-B488-250084C81198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86440B08-A2F2-4872-B488-250084C81198}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>

--- a/SuRGE_Sharepoint/data/CIN/CH4_205_Rosser_Park/dataSheets/surgeData205.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_205_Rosser_Park/dataSheets/surgeData205.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_205_Rosser_Park/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_205_Rosser_Park/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1103" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8378A4E6-3CD1-4376-9EDA-56350F6714E9}"/>
+  <xr:revisionPtr revIDLastSave="1104" documentId="8_{574317AD-36CA-42B2-83FE-C04BF0299D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7C00F2-2087-43B5-869B-B1F71215BD6B}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1385,10 +1385,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1689,8 +1685,8 @@
   <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+      <pane xSplit="2" topLeftCell="AM1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ7" sqref="BJ7:BL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,15 +2155,6 @@
       <c r="BI3" t="s">
         <v>199</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>204</v>
-      </c>
       <c r="BM3">
         <v>1.7544999999999999</v>
       </c>
@@ -2676,6 +2663,15 @@
       </c>
       <c r="BI7" t="s">
         <v>199</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:68" x14ac:dyDescent="0.3">
@@ -5025,56 +5021,10 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d9110ddba8137efcfc9b628571238300">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bebf8e6f5f0ff6ff908ec6e1ee4006f7" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5539,34 +5489,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86440B08-A2F2-4872-B488-250084C81198}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5589,10 +5571,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>